--- a/LF/TAS/Cote d'Ivoire/Sep 2024/ci_lf_tas1_2409_3_fts_result.xlsx
+++ b/LF/TAS/Cote d'Ivoire/Sep 2024/ci_lf_tas1_2409_3_fts_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Cote d'Ivoire\Apr 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Cote d'Ivoire\Sep 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDAE3FB-1D1C-4DE7-B67A-C39172C82431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9BCEE2-6851-4ADF-A274-00DAF963B6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -458,13 +458,13 @@
     <t>Le code doit être un nombre à deux chiffres entre 999 et 10000</t>
   </si>
   <si>
-    <t>(2024 Avr) 3. TAS1 &amp; 2 FL - Résultat FTS V2</t>
-  </si>
-  <si>
-    <t>ci_lf_tas1_202404_3_fts_result_v2</t>
-  </si>
-  <si>
     <t>concat(${d_district_id}, '-', ${d_cluster_id}, '-' ,${d_num})</t>
+  </si>
+  <si>
+    <t>ci_lf_tas1_2409_3_fts_result</t>
+  </si>
+  <si>
+    <t>(2024 Sept) 3. TAS2 FL - Résultat FTS</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1195,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>20</v>
@@ -1931,7 +1931,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>142</v>

--- a/LF/TAS/Cote d'Ivoire/Sep 2024/ci_lf_tas1_2409_3_fts_result.xlsx
+++ b/LF/TAS/Cote d'Ivoire/Sep 2024/ci_lf_tas1_2409_3_fts_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Cote d'Ivoire\Sep 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9BCEE2-6851-4ADF-A274-00DAF963B6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE5DF2B-30DD-4B64-8825-D9503A985EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,12 +452,6 @@
     <t xml:space="preserve">allow_choice_duplicates </t>
   </si>
   <si>
-    <t>. &gt; 999 and .&lt; 10000</t>
-  </si>
-  <si>
-    <t>Le code doit être un nombre à deux chiffres entre 999 et 10000</t>
-  </si>
-  <si>
     <t>concat(${d_district_id}, '-', ${d_cluster_id}, '-' ,${d_num})</t>
   </si>
   <si>
@@ -465,6 +459,12 @@
   </si>
   <si>
     <t>(2024 Sept) 3. TAS2 FL - Résultat FTS</t>
+  </si>
+  <si>
+    <t>. &gt; 99 and .&lt; 1000</t>
+  </si>
+  <si>
+    <t>Le code doit être un nombre à deux chiffres entre 99 et 1000</t>
   </si>
 </sst>
 </file>
@@ -933,10 +933,10 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1136,10 +1136,10 @@
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="13"/>
@@ -1195,7 +1195,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>20</v>
@@ -1957,10 +1957,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>137</v>
